--- a/target/test-classes/Excel-sheets/SampleExcel.xlsx
+++ b/target/test-classes/Excel-sheets/SampleExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="2145" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="2145" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Material" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N5"/>
+  <oleSize ref="A1:K5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>admin</t>
   </si>
@@ -115,50 +115,56 @@
     <t>0710420594</t>
   </si>
   <si>
-    <t>RMC Jaffna Plant</t>
-  </si>
-  <si>
-    <t>Holy Cross Project</t>
-  </si>
-  <si>
-    <t>J.J Aaron Richard Company Pvt. Ltd</t>
-  </si>
-  <si>
-    <t>Wesly</t>
-  </si>
-  <si>
-    <t>0773667998</t>
-  </si>
-  <si>
     <t>2020-11-0</t>
   </si>
   <si>
-    <t>mmmm</t>
-  </si>
-  <si>
-    <t>Material 01asqdfb</t>
-  </si>
-  <si>
-    <t>Innovation Raw Material</t>
-  </si>
-  <si>
-    <t>Tile Adhesive RM</t>
-  </si>
-  <si>
-    <t>AD2</t>
-  </si>
-  <si>
-    <t>SAR Tes</t>
-  </si>
-  <si>
-    <t>Semi Solid</t>
+    <t>Aggregates</t>
+  </si>
+  <si>
+    <t>Fine Aggregates</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>Manufactured</t>
+  </si>
+  <si>
+    <t>MS-F</t>
+  </si>
+  <si>
+    <t>RMC Peliyagoda Plant</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>RMC Aladeniya Plant</t>
+  </si>
+  <si>
+    <t>RDA Road Construction Project</t>
+  </si>
+  <si>
+    <t>Kolega Engineering Private limited</t>
+  </si>
+  <si>
+    <t>Mr. Chamila</t>
+  </si>
+  <si>
+    <t>7713466965</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,22 +198,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -215,30 +221,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFF0F0F0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -601,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +647,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +680,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +724,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +773,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,30 +783,30 @@
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="K1">
         <v>1500</v>
@@ -829,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,23 +835,32 @@
       <c r="A1" t="b">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="K1">
         <v>1500</v>
